--- a/js/1.xlsx
+++ b/js/1.xlsx
@@ -14,30 +14,492 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bool</x:t>
-  </x:si>
-  <x:si>
-    <x:t>number</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>e</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M&amp;M&lt;&gt;'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>null date</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162" count="162">
+  <x:si>
+    <x:t>order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Author</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Source</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Research Fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Times Cited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLANCK 2013 RESULTS. XVI. COSMOLOGICAL PARAMETERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ADE, PAR;  AGHANIM, N;  ARMITAGE-CAPLAN, C;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTRON ASTROPHYS 571: - NOV 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 2,273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NINE-YEAR WILKINSON MICROWAVE ANISOTROPY PROBE (WMAP) OBSERVATIONS: COSMOLOGICAL PARAMETER RESULTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> HINSHAW, G;  LARSON, D;  KOMATSU, E;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTROPHYS J SUPPL SER 208 (2): - OCT 2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLANCK 2013 RESULTS. XXII. CONSTRAINTS ON INFLATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ADE, PAR;  AGHANIM, N;  ARMITAGE-CAPLAN, C;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTRON ASTROPHYS 571: - NOV 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NINE-YEAR WILKINSON MICROWAVE ANISOTROPY PROBE (WMAP) OBSERVATIONS: FINAL MAPS AND RESULTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> BENNETT, CL;  LARSON, D;  WEILAND, JL;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTROPHYS J SUPPL SER 208 (2): - OCT 2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE TENTH DATA RELEASE OF THE SLOAN DIGITAL SKY SURVEY: FIRST SPECTROSCOPIC DATA FROM THE SDSS-III APACHE POINT OBSERVATORY GALACTIC EVOLUTION EXPERIMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t> AHN, CP;  ALEXANDROFF, R;  PRIETO, CA;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTROPHYS J SUPPL SER 211 (2): - APR 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DETECTION OF AN UNIDENTIFIED EMISSION LINE IN THE STACKED X-RAY SPECTRUM OF GALAXY CLUSTERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> BULBUL, E;  MARKEVITCH, M;  FOSTER, A;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTROPHYS J 789 (1): - JUL 1 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE MULTI-OBJECT, FIBER-FED SPECTROGRAPHS FOR THE SLOAN DIGITAL SKY SURVEY AND THE BARYON OSCILLATION SPECTROSCOPIC SURVEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SMEE, SA;  GUNN, JE;  UOMOTO, A;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTRON J 146 (2): - AUG 2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A MODEL FOR COSMOLOGICAL SIMULATIONS OF GALAXY FORMATION PHYSICS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> VOGELSBERGER, M;  GENEL, S;  SIJACKI, D;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> MON NOTIC ROY ASTRON SOC 436 (4): 3031-3067 DEC 2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MASSES, RADII, AND ORBITS OF SMALL KEPLER PLANETS: THE TRANSITION FROM GASEOUS TO ROCKY PLANETS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> MARCY, GW;  ISAACSON, H;  HOWARD, AW;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTROPHYS J SUPPL SER 210 (2): - FEB 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE ATACAMA COSMOLOGY TELESCOPE: SUNYAEV-ZELDOVICH SELECTED GALAXY CLUSTERS AT 148 GHZ FROM THREE SEASONS OF DATA</x:t>
+  </x:si>
+  <x:si>
+    <x:t> HASSELFIELD, M;  HILTON, M;  MARRIAGE, TA;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> J COSMOL ASTROPART PHYS (7): - JUL 2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PREVALENCE OF EARTH-SIZE PLANETS ORBITING SUN-LIKE STARS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> PETIGURA, EA;  HOWARD, AW;  MARCY, GW;</x:t>
+  </x:si>
+  <x:si>
+    <x:t> PROC NAT ACAD SCI USA 110 (48): 19273-19278 NOV 26 2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRIGONOMETRIC PARALLAXES OF HIGH MASS STAR FORMING REGIONS: THE STRUCTURE AND KINEMATICS OF THE MILKY WAY</x:t>
+  </x:si>
+  <x:si>
+    <x:t> REID, MJ;  MENTEN, KM;  BRUNTHALER, A;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTROPHYS J 783 (2): - MAR 10 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE CLUSTERING OF GALAXIES IN THE SDSS-III BARYON OSCILLATION SPECTROSCOPIC SURVEY: BARYON ACOUSTIC OSCILLATIONS IN THE DATA RELEASES 10 AND 11 GALAXY SAMPLES</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ANDERSON, L;  AUBOURG, E;  BAILEY, S;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> MON NOTIC ROY ASTRON SOC 441 (1): 24-62 JUN 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE INTERFACE REGION IMAGING SPECTROGRAPH (IRIS)</x:t>
+  </x:si>
+  <x:si>
+    <x:t> DE PONTIEU, B;  TITLE, AM;  LEMEN, JR;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SOL PHYS 289 (7): 2733-2779 JUL 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROPERTIES OF GALAXIES REPRODUCED BY A HYDRODYNAMIC SIMULATION</x:t>
+  </x:si>
+  <x:si>
+    <x:t> VOGELSBERGER, M;  GENEL, S;  SPRINGEL, V;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> NATURE 509 (7499): 177-+ MAY 8 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INTRODUCING THE ILLUSTRIS PROJECT: SIMULATING THE COEVOLUTION OF DARK AND VISIBLE MATTER IN THE UNIVERSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> VOGELSBERGER, M;  GENEL, S;  SPRINGEL, V;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> MON NOTIC ROY ASTRON SOC 444 (2): 1518-1547 OCT 21 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMPROVED COSMOLOGICAL CONSTRAINTS FROM A JOINT ANALYSIS OF THE SDSS-II AND SNLS SUPERNOVA SAMPLES</x:t>
+  </x:si>
+  <x:si>
+    <x:t> BETOULE, M;  KESSLER, R;  GUY, J;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTRON ASTROPHYS 568: - AUG 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OBSERVATIONAL CLUES TO THE PROGENITORS OF TYPE IA SUPERNOVAE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> MAOZ, D;  MANNUCCI, F;  NELEMANS, G;</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ANNU REV ASTRON ASTROPHYS 52: 107-170 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE EAGLE PROJECT: SIMULATING THE EVOLUTION AND ASSEMBLY OF GALAXIES AND THEIR ENVIRONMENTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SCHAYE, J;  CRAIN, RA;  BOWER, RG;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> MON NOTIC ROY ASTRON SOC 446 (1): 521-554 JAN 2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE CLUSTERING OF GALAXIES IN THE SDSS-III BARYON OSCILLATION SPECTROSCOPIC SURVEY: TESTING GRAVITY WITH REDSHIFT SPACE DISTORTIONS USING THE POWER SPECTRUM MULTIPOLES</x:t>
+  </x:si>
+  <x:si>
+    <x:t> BEUTLER, F;  SAITO, S;  SEO, HJ;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> MON NOTIC ROY ASTRON SOC 443 (2): 1065-1089 SEP 11 2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BACKGROUND MODEL SYSTEMATICS FOR THE FERMI GEV EXCESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> CALORE, F;  CHOLIS, I;  WENIGER, C;</x:t>
+  </x:si>
+  <x:si>
+    <x:t> J COSMOL ASTROPART PHYS (3): - MAR 2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EXPLORING GRAVITATIONAL THEORIES BEYOND HORNDESKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t> GLEYZES, J;  LANGLOIS, D;  PIAZZA, F;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> J COSMOL ASTROPART PHYS (2): - FEB 2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OVERVIEW OF THE SDSS-IV MANGA SURVEY: MAPPING NEARBY GALAXIES AT APACHE POINT OBSERVATORY</x:t>
+  </x:si>
+  <x:si>
+    <x:t> BUNDY, K;  BERSHADY, MA;  LAW, DR;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ASTROPHYS J 798 (1): - JAN 1 2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COMPREHENSIVE NUCLEOSYNTHESIS ANALYSIS FOR EJECTA OF COMPACT BINARY MERGERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> JUST, O;  BAUSWEIN, A;  PULPILLO, RA;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> MON NOTIC ROY ASTRON SOC 448 (1): 541-567 MAR 21 2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>THE ORIGIN, EVOLUTION, AND TRAJECTORY OF LARGE DUST STORMS ON MARS DURING MARS YEARS 24-30 (1999-2011)</x:t>
+  </x:si>
+  <x:si>
+    <x:t> WANG, HQ;  RICHARDSON, MI;</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ICARUS 251: 112-127 MAY 1 2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRESENT-DAY SEASONAL GULLY ACTIVITY IN A SOUTH POLAR PIT (SISYPHI CAVI) ON MARS</x:t>
+  </x:si>
+  <x:si>
+    <x:t> RAACK, J;  REISS, D;  APPERE, T;  et.al</x:t>
+  </x:si>
+  <x:si>
+    <x:t> ICARUS 251: 226-243 MAY 1 2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t> SPACE SCIENCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 5</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -400,7 +862,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -413,58 +875,531 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="n">
-        <x:v>Wed May 01 2013 08:00:00 GMT+0800 (CST)</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="n">
-        <x:v>3.14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="1" t="n">
-        <x:v>Tue May 01 2012 00:00:00 GMT+0800 (CST)</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>2.7182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="n">
-        <x:v>Tue Jul 09 2013 08:00:00 GMT+0800 (CST)</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="b">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>1.61803</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="n">
-        <x:v>1.414</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>161</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
